--- a/data/RespirationRate/Block2_Day7_plate4_results_Oxygen.xlsx
+++ b/data/RespirationRate/Block2_Day7_plate4_results_Oxygen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PreSens\SDR_v4.0.0\Resource Quality Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/mlfearon_umich_edu/Documents/PROJECTS/MHMP Daphnia Duffy/Resource Quality/Data and Code/resource-quality-expt/data/RespirationRate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E09444E-4130-4C6A-AA63-5002551FA6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{6E09444E-4130-4C6A-AA63-5002551FA6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2A09CEC-A924-42DD-8469-88DE9F965174}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="52" windowWidth="11970" windowHeight="8971" xr2:uid="{950DE21F-9160-47C0-830E-5F9B0EA0D426}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="21600" windowHeight="11270" xr2:uid="{950DE21F-9160-47C0-830E-5F9B0EA0D426}"/>
   </bookViews>
   <sheets>
     <sheet name="Oxygen Orginal" sheetId="2" r:id="rId1"/>
@@ -838,9 +838,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -869,7 +869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -883,7 +883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -897,7 +897,7 @@
         <v>54.4</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -917,7 +917,7 @@
         <v>46.95</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -931,7 +931,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -945,7 +945,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="H7" t="s">
         <v>26</v>
       </c>
@@ -953,7 +953,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="H8" t="s">
         <v>27</v>
       </c>
@@ -961,7 +961,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>21.93</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>21.99</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>22.04</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>22.06</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>22.06</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>22.09</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>22.09</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>22.11</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>22.09</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>22.09</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>22.09</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>22.09</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>22.09</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>22.09</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>73</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>22.06</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>22.06</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>22.06</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>22.04</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>22.04</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>22.04</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>22.04</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>22.04</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>22.04</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>22.02</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>22.02</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>22.02</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>21.99</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>21.99</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>21.99</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>21.99</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>21.99</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>21.99</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>21.99</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>21.98</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>21.98</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>94</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>21.98</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>95</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>21.98</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>96</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>21.98</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>21.95</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>98</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>21.98</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>99</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>21.98</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>100</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>21.95</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>101</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>21.95</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>21.95</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>103</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>21.97</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>104</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>21.97</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>105</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>21.95</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>106</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>21.95</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>107</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>21.95</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>108</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>21.95</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>109</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>21.97</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>110</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>21.95</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>111</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>21.95</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>112</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>21.95</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>113</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>21.95</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>114</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>21.93</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>115</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>21.93</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>116</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>21.95</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>117</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>21.93</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>118</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>21.93</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>119</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>21.93</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>120</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>21.95</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>121</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>21.93</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>122</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>21.95</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>123</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>21.93</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>124</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>21.93</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>125</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>21.93</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>126</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>21.93</v>
       </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>127</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>21.93</v>
       </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>128</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>21.93</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>129</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>21.95</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>130</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>21.93</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>131</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>21.95</v>
       </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>132</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>21.93</v>
       </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>133</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>21.92</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>134</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>21.95</v>
       </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>135</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>21.95</v>
       </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>136</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>21.95</v>
       </c>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>137</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>21.95</v>
       </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>138</v>
       </c>
@@ -8427,7 +8427,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
